--- a/food_groups/vegetarian.xlsx
+++ b/food_groups/vegetarian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD7F548-2BE3-434B-988F-7AD03B5D77DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A7DED6-28C7-4C2C-8AE9-96F0837A39A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{333B36CC-CCBD-4C7E-870E-87D3EC768DC1}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>non-vegetarian</t>
   </si>
   <si>
-    <t>food super food</t>
+    <t>food super group</t>
   </si>
 </sst>
 </file>

--- a/food_groups/vegetarian.xlsx
+++ b/food_groups/vegetarian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A7DED6-28C7-4C2C-8AE9-96F0837A39A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751025C7-B9B2-42BF-BA75-1B529529100C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{333B36CC-CCBD-4C7E-870E-87D3EC768DC1}"/>
   </bookViews>
